--- a/Lab6/Report.xlsx
+++ b/Lab6/Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25813"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RO_Labs\Lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45176C19-65E2-46F5-886D-194CA117D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588AB12-1261-4E9C-B569-E0BBEE29BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{93A1F5B6-7D64-4FD7-A7A8-C542D9DECB07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
     <t>Matrix size</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Tape</t>
+  </si>
+  <si>
+    <t>Time, ms</t>
   </si>
 </sst>
 </file>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16BC43A-FC2B-49BB-918D-6A3B13488D2D}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>616</v>
@@ -540,74 +540,74 @@
         <v>2.0986842105263159</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>347</v>
+      </c>
+      <c r="C12">
+        <v>335</v>
+      </c>
+      <c r="D12">
+        <v>343</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(B12:D12)</f>
+        <v>341.66666666666669</v>
+      </c>
+      <c r="F12">
+        <f>$E$4/E12</f>
+        <v>3.7346341463414632</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="C13">
-        <v>335</v>
+        <v>487</v>
       </c>
       <c r="D13">
-        <v>343</v>
+        <v>472</v>
       </c>
       <c r="E13">
         <f>AVERAGE(B13:D13)</f>
-        <v>341.66666666666669</v>
+        <v>475.33333333333331</v>
       </c>
       <c r="F13">
         <f>$E$4/E13</f>
-        <v>3.7346341463414632</v>
+        <v>2.6844319775596075</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>467</v>
+        <v>568</v>
       </c>
       <c r="C14">
-        <v>487</v>
+        <v>579</v>
       </c>
       <c r="D14">
-        <v>472</v>
+        <v>625</v>
       </c>
       <c r="E14">
         <f>AVERAGE(B14:D14)</f>
-        <v>475.33333333333331</v>
+        <v>590.66666666666663</v>
       </c>
       <c r="F14">
         <f>$E$4/E14</f>
-        <v>2.6844319775596075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>568</v>
-      </c>
-      <c r="C15">
-        <v>579</v>
-      </c>
-      <c r="D15">
-        <v>625</v>
-      </c>
-      <c r="E15">
-        <f>AVERAGE(B15:D15)</f>
-        <v>590.66666666666663</v>
-      </c>
-      <c r="F15">
-        <f>$E$4/E15</f>
         <v>2.1602708803611739</v>
       </c>
     </row>
